--- a/AIRLINES_2023_S301_08_HanJeongSeuCaleb.xlsx
+++ b/AIRLINES_2023_S301_08_HanJeongSeuCaleb.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\301_08_2023 SST Computing EOY P2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samuellee/Desktop/2023 Computing EOY/Q1 Combined List/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6268E5-A753-D742-9278-2C053231C9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1320" windowWidth="28800" windowHeight="15945"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Name of Customer</t>
   </si>
@@ -114,12 +125,42 @@
   </si>
   <si>
     <t>Date of Purchase</t>
+  </si>
+  <si>
+    <t>Question [Marks]</t>
+  </si>
+  <si>
+    <t>Q1 [1]</t>
+  </si>
+  <si>
+    <t>Q2 [1]</t>
+  </si>
+  <si>
+    <t>Q3 [1]</t>
+  </si>
+  <si>
+    <t>Q4 [2]</t>
+  </si>
+  <si>
+    <t>Q5 [2]</t>
+  </si>
+  <si>
+    <t>Q6 [2]</t>
+  </si>
+  <si>
+    <t>Q7 [1]</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Marks Awarded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -141,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -246,17 +293,21 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -277,24 +328,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -322,6 +356,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,36 +675,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -686,7 +727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -712,7 +753,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -738,7 +779,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -764,7 +805,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -790,7 +831,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -816,7 +857,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -842,7 +883,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -868,7 +909,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -894,7 +935,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -920,7 +961,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -946,7 +987,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -972,7 +1013,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -998,7 +1039,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1007,21 +1048,21 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="5"/>
       <c r="E17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F17" s="12">
         <f ca="1">TODAY()</f>
-        <v>45211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -1037,7 +1078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
@@ -1060,12 +1101,71 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="9">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>2</v>
+      </c>
+      <c r="F25" s="15">
+        <v>2</v>
+      </c>
+      <c r="G25" s="15">
+        <v>2</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <f>SUM(B25:H25)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1073,12 +1173,9 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A17:B17"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>"$G2&gt;100"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
-      <formula>1000</formula>
+  <conditionalFormatting sqref="A3:XFD3 G4:G14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$G3&gt;1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
@@ -1086,14 +1183,12 @@
       <formula>$G$4&gt;1000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:XFD3 G4:G14">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$G3&gt;1000</formula>
+  <conditionalFormatting sqref="G3:G14">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>1000</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G14">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
-      <formula>1000</formula>
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>"$G2&gt;100"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
